--- a/remote_jobs_list.xlsx
+++ b/remote_jobs_list.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="2026-02-06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2026-02-07" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1478,6 +1479,1347 @@
           <t>Worldwide</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/product/product-developer-engineer-fun-ecom-co-great-people-flexible-hours-2088608</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Client Support Specialist</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Europe, Canada, South Africa, Philippines, Jamaica</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/customer-service/client-support-specialist-2086826</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Senior Independent Software Developer</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Americas, Europe, Israel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$90 - $150 /hour</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-development/senior-independent-software-developer-1919265</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Senior Independent AI Engineer / Architect</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Americas, Europe, Israel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$120 - $170 /hour</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-development/senior-independent-ai-engineer-architect-1919266</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Tech Lead Full-Stack Rails Engineer</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>USA, Canada, USA timezones</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$170k - $200k</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-development/tech-lead-full-stack-rails-engineer-2069746</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tech Lead Databricks Data Engineer</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>USA, Canada, USA timezones</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$160k - $180k</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-development/tech-lead-databricks-data-engineer-2069747</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer, Global Contractor</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$30–$60/hour</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-development/senior-software-engineer-global-contractor-2088534</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Office Assistant</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$31,2k- $52k</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/marketing/office-assistant-1680495</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>平台</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>优先级</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>职位名称</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>地点/限制</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>薪资/计费</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>发布时间</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>申请链接</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>⭐ High</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Animalz: Content Marketer, SEO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>🌍 Global/Anywhere</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/animalz-content-marketer-seo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Animalz: Senior Content Marketer (Enterprise/Campaigns)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/animalz-senior-content-marketer-enterprise-campaigns-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SKYCATCHFIRE: Senior Python Backend Developer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/skycatchfire-senior-python-backend-developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Stealth-Mode Tech Startup: Operations Supervisor (Remote, US-Based) – Early-Stage Tech Startup</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/stealth-mode-tech-startup-operations-supervisor-remote-us-based-early-stage-tech-startup</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Toptal: Virtual Assistant</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/toptal-virtual-assistant</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Toptal: Personal Assistant</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/toptal-personal-assistant</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Toptal: Executive Assistant</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/toptal-executive-assistant</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Toptal: Customer Service Representative</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/toptal-customer-service-representative</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Anexia Internetdienstleistungs: Senior Network Automation Engineer (M/W/D)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/anexia-internetdienstleistungs-senior-network-automation-engineer-m-w-d</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>We Work Remotely</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Publix Super Markets: SR. Sitecore Front End Web Developer - Publix.com (Remote)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/publix-super-markets-sr-sitecore-front-end-web-developer-publix-com-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Experienced Technical Writer for STEM Bluetooth Speaker Kit Documentation (Electronics Focus) -- 2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$125 - $250</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sat, 07 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/circuit-design/Experienced-Technical-Writer-for-STEM.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Uo-bu699smnPO7xqUGSItpgvV8qQI3hd</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/accounting/https-drive-google-com-file.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Social Media Strategist + Video Editor</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/social-media-management/Social-Media-Strategist-Video-Editor.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Urgent: Looking for a Professional Who Can Introduce a Serious Investor (24h Deal) -- 2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$5000 - $10000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/business-development/Urgent-Looking-for-Professional-Who.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Urgent: Looking for a Professional Who Can Introduce a Serious Investor (24h Deal)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$3000 - $5000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/business-consultant/Urgent-Looking-for-Professional-Who.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Freelance Writer &amp;amp; Spreadsheet Entry</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/data-entry/Freelance-Writer-Spreadsheet-Entry-40211243.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Locate My Stuck Courier In Delhi</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/logistics-shipping/Locate-Stuck-Courier-Delhi.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Realistic Mini-Sprinkler Image</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/illustrator/Realistic-Mini-Sprinkler-Image.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cheaper OTP Delivery Solution Needed</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$10 - $30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/api/Cheaper-OTP-Delivery-Solution-Needed.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Freelancer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Inventory Update &amp;amp; Zoho Automation</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>See Link</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fri, 06 Feb 2026</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.freelancer.com/projects/zoho-crm/Inventory-Update-Zoho-Automation.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Freelance Writer</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$50-$75 /hour</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/writing/freelance-writer-1185979</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AI Internet Rater</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$14.5/hour</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/ai-ml/ai-internet-rater-2088618</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Copywriter</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$20k -$35k</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/writing/copywriter-1749306</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Senior Amazon Brand Manager</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$220k-$300k OTE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/marketing/senior-amazon-brand-manager-2082736</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Product, Platform &amp; Enterprise Full Stack Sr/Staff Software Engineer</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>$165,000 - $300,000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-development/product-platform-enterprise-full-stack-sr-staff-software-engineer-2088612</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Product, Platform &amp; Enterprise Front End Sr/Staff Software Engineer</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$165k - $300k</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-development/product-platform-enterprise-front-end-sr-staff-software-engineer-2088611</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sr/Staff AI Engineer</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$165k - $300k</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/ai-ml/sr-staff-ai-engineer-2088613</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Product Developer / Engineer @ Fun Ecom Co | Great People &amp; Flexible Hours</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>

--- a/remote_jobs_list.xlsx
+++ b/remote_jobs_list.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="2026-02-06" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2026-02-07" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2026-02-12" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +19,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +47,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2820,7 +2833,6 @@
           <t>Worldwide</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>2026-01-20</t>
@@ -2853,7 +2865,6 @@
           <t>Europe, Canada, South Africa, Philippines, Jamaica</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
           <t>2026-01-16</t>
@@ -3084,6 +3095,79 @@
       <c r="G36" t="inlineStr">
         <is>
           <t>https://remotive.com/remote-jobs/marketing/office-assistant-1680495</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>职位</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>地点</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>来源</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>链接</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>工作流运行正常</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Everywhere</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://github.com</t>
         </is>
       </c>
     </row>

--- a/remote_jobs_list.xlsx
+++ b/remote_jobs_list.xlsx
@@ -10,6 +10,7 @@
     <sheet name="2026-02-06" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2026-02-07" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2026-02-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2026-02-13" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3174,4 +3175,77 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>职位</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>地点</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>来源</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>链接</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>暂无新职位 (检查源)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/remote_jobs_list.xlsx
+++ b/remote_jobs_list.xlsx
@@ -3183,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3221,27 +3221,378 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>暂无新职位 (检查源)</t>
+          <t>Associate Manager Digital Media</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Unlock Health</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Worldwide</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>https://remoteOK.com/remote-jobs/remote-associate-manager-digital-media-unlock-health-1130215</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Senior Support Operations Manager</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DeepIntent</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-support-operations-manager-deepintent-1130214</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Director EMEA Marketing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BambooHR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-director-emea-marketing-bamboohr-1130213</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Marketing Associate</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beacon Biosignals</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-marketing-associate-beacon-biosignals-1130212</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Senior Client Success Manager</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Force Therapeutics</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-client-success-manager-force-therapeutics-1130211</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Senior Paid Search Analyst</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unlock Health</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-paid-search-analyst-unlock-health-1130210</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Customer Success Manager Strategic</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AcuityMD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-customer-success-manager-strategic-acuitymd-1130209</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Senior DevSecOps Platform Security Engineer</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DEFCON AI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-devsecops-platform-security-engineer-defcon-ai-1130208</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Senior Product Manager Connected Care</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Linus Health</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-product-manager-connected-care-linus-health-1130207</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Associate Therapist Fully</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Daybreak Health</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-associate-therapist-fully-daybreak-health-1130206</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior Cybersecurity Engineer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Accenture Federal Services</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-cybersecurity-engineer-accenture-federal-services-1130205</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Customer Service Hospitality Reservations</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Destination Knot</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-customer-service-hospitality-reservations-destination-knot-1130204</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Senior Systems Engineer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Logos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-systems-engineer-logos-1130203</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fullstack Automation Engineer Delivery Automation Team</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hostinger</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Worldwide</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-fullstack-automation-engineer-delivery-automation-team-hostinger-1130201</t>
         </is>
       </c>
     </row>

--- a/remote_jobs_list.xlsx
+++ b/remote_jobs_list.xlsx
@@ -3183,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3488,114 +3488,6 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Senior Cybersecurity Engineer</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Accenture Federal Services</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Worldwide</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://remoteOK.com/remote-jobs/remote-senior-cybersecurity-engineer-accenture-federal-services-1130205</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Customer Service Hospitality Reservations</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Destination Knot</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Worldwide</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://remoteOK.com/remote-jobs/remote-customer-service-hospitality-reservations-destination-knot-1130204</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Senior Systems Engineer</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Logos</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Worldwide</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://remoteOK.com/remote-jobs/remote-senior-systems-engineer-logos-1130203</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Fullstack Automation Engineer Delivery Automation Team</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Hostinger</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Worldwide</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://remoteOK.com/remote-jobs/remote-fullstack-automation-engineer-delivery-automation-team-hostinger-1130201</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/remote_jobs_list.xlsx
+++ b/remote_jobs_list.xlsx
@@ -3183,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3204,15 +3204,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>地点</t>
+          <t>来源</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>来源</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>链接</t>
         </is>
@@ -3231,15 +3226,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-associate-manager-digital-media-unlock-health-1130215</t>
         </is>
@@ -3258,15 +3248,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-senior-support-operations-manager-deepintent-1130214</t>
         </is>
@@ -3285,15 +3270,10 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-director-emea-marketing-bamboohr-1130213</t>
         </is>
@@ -3312,15 +3292,10 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-marketing-associate-beacon-biosignals-1130212</t>
         </is>
@@ -3339,15 +3314,10 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-senior-client-success-manager-force-therapeutics-1130211</t>
         </is>
@@ -3366,15 +3336,10 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-senior-paid-search-analyst-unlock-health-1130210</t>
         </is>
@@ -3393,15 +3358,10 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-customer-success-manager-strategic-acuitymd-1130209</t>
         </is>
@@ -3420,15 +3380,10 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-senior-devsecops-platform-security-engineer-defcon-ai-1130208</t>
         </is>
@@ -3447,15 +3402,10 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-senior-product-manager-connected-care-linus-health-1130207</t>
         </is>
@@ -3474,15 +3424,10 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Worldwide</t>
+          <t>RemoteOK</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>RemoteOK</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-associate-therapist-fully-daybreak-health-1130206</t>
         </is>

--- a/remote_jobs_list.xlsx
+++ b/remote_jobs_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2026-02-06" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2026-02-07" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2026-02-12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2026-02-13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-02-06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-02-07" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-02-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-02-13" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3183,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3216,218 +3216,438 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Associate Manager Digital Media</t>
+          <t>YOYABA: Performance Marketing Manager – for B2B Tech &amp; SaaS Scale-Ups (m/f/d)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unlock Health</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-associate-manager-digital-media-unlock-health-1130215</t>
+          <t>https://weworkremotely.com/remote-jobs/yoyaba-performance-marketing-manager-for-b2b-tech-saas-scale-ups-m-f-d</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Support Operations Manager</t>
+          <t>Paired: Head of Growth for a U.S. B2C SaaS Platform (Remote)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DeepIntent</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-senior-support-operations-manager-deepintent-1130214</t>
+          <t>https://weworkremotely.com/remote-jobs/paired-head-of-growth-for-a-u-s-b2c-saas-platform-remote</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Director EMEA Marketing</t>
+          <t>IFS: Account Executive – Strategic Accounts / Expansion (Install Base), DACH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BambooHR</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-director-emea-marketing-bamboohr-1130213</t>
+          <t>https://weworkremotely.com/remote-jobs/ifs-account-executive-strategic-accounts-expansion-install-base-dach</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Marketing Associate</t>
+          <t>Actionstep: SDR / Sales Development Representative - SaaS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beacon Biosignals</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-marketing-associate-beacon-biosignals-1130212</t>
+          <t>https://weworkremotely.com/remote-jobs/actionstep-sdr-sales-development-representative-saas</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Client Success Manager</t>
+          <t>Sequoia Connect: Remote Technical Lead – Oracle SaaS Cloud</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Force Therapeutics</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-senior-client-success-manager-force-therapeutics-1130211</t>
+          <t>https://weworkremotely.com/remote-jobs/sequoia-connect-remote-technical-lead-oracle-saas-cloud</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Paid Search Analyst</t>
+          <t>ORGA-SOFT: Senior Frontend Software Developer (m/w/d) - React, GraphQL &amp; Progressive Web Apps (PWA)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unlock Health</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-senior-paid-search-analyst-unlock-health-1130210</t>
+          <t>https://weworkremotely.com/remote-jobs/orga-soft-senior-frontend-software-developer-m-w-d-react-graphql-progressive-web-apps-pwa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Customer Success Manager Strategic</t>
+          <t>EBG: PHP Web Application Developer (API)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AcuityMD</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-customer-success-manager-strategic-acuitymd-1130209</t>
+          <t>https://weworkremotely.com/remote-jobs/ebg-php-web-application-developer-api</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior DevSecOps Platform Security Engineer</t>
+          <t>WeVote: Donor Communications Specialist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEFCON AI</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-senior-devsecops-platform-security-engineer-defcon-ai-1130208</t>
+          <t>https://weworkremotely.com/remote-jobs/wevote-donor-communications-specialist</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Product Manager Connected Care</t>
+          <t>Cotiviti: Sdet</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Linus Health</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RemoteOK</t>
+          <t>WWR</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://remoteOK.com/remote-jobs/remote-senior-product-manager-connected-care-linus-health-1130207</t>
+          <t>https://weworkremotely.com/remote-jobs/cotiviti-sdet-1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Akamai: Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WWR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WWR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://weworkremotely.com/remote-jobs/akamai-senior-software-engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Associate Manager Digital Media</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Unlock Health</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-associate-manager-digital-media-unlock-health-1130215</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Senior Support Operations Manager</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DeepIntent</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-support-operations-manager-deepintent-1130214</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Director EMEA Marketing</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BambooHR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-director-emea-marketing-bamboohr-1130213</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Marketing Associate</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Beacon Biosignals</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-marketing-associate-beacon-biosignals-1130212</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Senior Client Success Manager</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Force Therapeutics</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-client-success-manager-force-therapeutics-1130211</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Senior Paid Search Analyst</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Unlock Health</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-paid-search-analyst-unlock-health-1130210</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Customer Success Manager Strategic</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AcuityMD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-customer-success-manager-strategic-acuitymd-1130209</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Senior DevSecOps Platform Security Engineer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DEFCON AI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-devsecops-platform-security-engineer-defcon-ai-1130208</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Senior Product Manager Connected Care</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Linus Health</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RemoteOK</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://remoteOK.com/remote-jobs/remote-senior-product-manager-connected-care-linus-health-1130207</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Associate Therapist Fully</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Daybreak Health</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>RemoteOK</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://remoteOK.com/remote-jobs/remote-associate-therapist-fully-daybreak-health-1130206</t>
         </is>
